--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vtn-Itga8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vtn-Itga8.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>7.134618000000001</v>
+        <v>5.835941000000001</v>
       </c>
       <c r="H2">
-        <v>21.403854</v>
+        <v>17.507823</v>
       </c>
       <c r="I2">
-        <v>0.09653179209260773</v>
+        <v>0.03643643319117328</v>
       </c>
       <c r="J2">
-        <v>0.09653179209260773</v>
+        <v>0.03643643319117327</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.518534666666667</v>
+        <v>0.24449</v>
       </c>
       <c r="N2">
-        <v>4.555604</v>
+        <v>0.73347</v>
       </c>
       <c r="O2">
-        <v>0.1025715407499064</v>
+        <v>0.009675524511058336</v>
       </c>
       <c r="P2">
-        <v>0.1025715407499064</v>
+        <v>0.009675524511058334</v>
       </c>
       <c r="Q2">
-        <v>10.834164766424</v>
+        <v>1.42682921509</v>
       </c>
       <c r="R2">
-        <v>97.507482897816</v>
+        <v>12.84146293581</v>
       </c>
       <c r="S2">
-        <v>0.009901414646288404</v>
+        <v>0.0003525416024367365</v>
       </c>
       <c r="T2">
-        <v>0.009901414646288404</v>
+        <v>0.0003525416024367364</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>7.134618000000001</v>
+        <v>5.835941000000001</v>
       </c>
       <c r="H3">
-        <v>21.403854</v>
+        <v>17.507823</v>
       </c>
       <c r="I3">
-        <v>0.09653179209260773</v>
+        <v>0.03643643319117328</v>
       </c>
       <c r="J3">
-        <v>0.09653179209260773</v>
+        <v>0.03643643319117327</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>13.255676</v>
       </c>
       <c r="O3">
-        <v>0.2984577041818288</v>
+        <v>0.1748614367985708</v>
       </c>
       <c r="P3">
-        <v>0.2984577041818288</v>
+        <v>0.1748614367985708</v>
       </c>
       <c r="Q3">
-        <v>31.524728197256</v>
+        <v>25.78644768370534</v>
       </c>
       <c r="R3">
-        <v>283.722553775304</v>
+        <v>232.078029153348</v>
       </c>
       <c r="S3">
-        <v>0.02881065704851732</v>
+        <v>0.006371327059623694</v>
       </c>
       <c r="T3">
-        <v>0.02881065704851732</v>
+        <v>0.006371327059623691</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>7.134618000000001</v>
+        <v>5.835941000000001</v>
       </c>
       <c r="H4">
-        <v>21.403854</v>
+        <v>17.507823</v>
       </c>
       <c r="I4">
-        <v>0.09653179209260773</v>
+        <v>0.03643643319117328</v>
       </c>
       <c r="J4">
-        <v>0.09653179209260773</v>
+        <v>0.03643643319117327</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.867545999999999</v>
+        <v>20.60586566666667</v>
       </c>
       <c r="N4">
-        <v>26.602638</v>
+        <v>61.81759700000001</v>
       </c>
       <c r="O4">
-        <v>0.5989707550682648</v>
+        <v>0.815463038690371</v>
       </c>
       <c r="P4">
-        <v>0.5989707550682649</v>
+        <v>0.8154630386903708</v>
       </c>
       <c r="Q4">
-        <v>63.266553307428</v>
+        <v>120.2546162845924</v>
       </c>
       <c r="R4">
-        <v>569.398979766852</v>
+        <v>1082.291546561331</v>
       </c>
       <c r="S4">
-        <v>0.057819720397802</v>
+        <v>0.02971256452911285</v>
       </c>
       <c r="T4">
-        <v>0.05781972039780202</v>
+        <v>0.02971256452911284</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.50798033333333</v>
+        <v>17.50798033333334</v>
       </c>
       <c r="H5">
-        <v>52.52394099999999</v>
+        <v>52.52394100000001</v>
       </c>
       <c r="I5">
-        <v>0.2368839813846793</v>
+        <v>0.1093102818770573</v>
       </c>
       <c r="J5">
-        <v>0.2368839813846793</v>
+        <v>0.1093102818770573</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.518534666666667</v>
+        <v>0.24449</v>
       </c>
       <c r="N5">
-        <v>4.555604</v>
+        <v>0.73347</v>
       </c>
       <c r="O5">
-        <v>0.1025715407499064</v>
+        <v>0.009675524511058336</v>
       </c>
       <c r="P5">
-        <v>0.1025715407499064</v>
+        <v>0.009675524511058334</v>
       </c>
       <c r="Q5">
-        <v>26.58647507948488</v>
+        <v>4.280526111696667</v>
       </c>
       <c r="R5">
-        <v>239.2782757153639</v>
+        <v>38.52473500527</v>
       </c>
       <c r="S5">
-        <v>0.0242975549495987</v>
+        <v>0.001057634311612164</v>
       </c>
       <c r="T5">
-        <v>0.0242975549495987</v>
+        <v>0.001057634311612163</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.50798033333333</v>
+        <v>17.50798033333334</v>
       </c>
       <c r="H6">
-        <v>52.52394099999999</v>
+        <v>52.52394100000001</v>
       </c>
       <c r="I6">
-        <v>0.2368839813846793</v>
+        <v>0.1093102818770573</v>
       </c>
       <c r="J6">
-        <v>0.2368839813846793</v>
+        <v>0.1093102818770573</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>13.255676</v>
       </c>
       <c r="O6">
-        <v>0.2984577041818288</v>
+        <v>0.1748614367985708</v>
       </c>
       <c r="P6">
-        <v>0.2984577041818288</v>
+        <v>0.1748614367985708</v>
       </c>
       <c r="Q6">
-        <v>77.36003823767955</v>
+        <v>77.36003823767957</v>
       </c>
       <c r="R6">
-        <v>696.2403441391159</v>
+        <v>696.240344139116</v>
       </c>
       <c r="S6">
-        <v>0.07069984924152246</v>
+        <v>0.01911415294587901</v>
       </c>
       <c r="T6">
-        <v>0.07069984924152245</v>
+        <v>0.01911415294587901</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.50798033333333</v>
+        <v>17.50798033333334</v>
       </c>
       <c r="H7">
-        <v>52.52394099999999</v>
+        <v>52.52394100000001</v>
       </c>
       <c r="I7">
-        <v>0.2368839813846793</v>
+        <v>0.1093102818770573</v>
       </c>
       <c r="J7">
-        <v>0.2368839813846793</v>
+        <v>0.1093102818770573</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.867545999999999</v>
+        <v>20.60586566666667</v>
       </c>
       <c r="N7">
-        <v>26.602638</v>
+        <v>61.81759700000001</v>
       </c>
       <c r="O7">
-        <v>0.5989707550682648</v>
+        <v>0.815463038690371</v>
       </c>
       <c r="P7">
-        <v>0.5989707550682649</v>
+        <v>0.8154630386903708</v>
       </c>
       <c r="Q7">
-        <v>155.2528209729286</v>
+        <v>360.7670908433087</v>
       </c>
       <c r="R7">
-        <v>1397.275388756358</v>
+        <v>3246.903817589778</v>
       </c>
       <c r="S7">
-        <v>0.1418865771935582</v>
+        <v>0.08913849461956613</v>
       </c>
       <c r="T7">
-        <v>0.1418865771935582</v>
+        <v>0.08913849461956611</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>49.26691733333334</v>
+        <v>136.8238143333333</v>
       </c>
       <c r="H8">
-        <v>147.800752</v>
+        <v>410.471443</v>
       </c>
       <c r="I8">
-        <v>0.666584226522713</v>
+        <v>0.8542532849317694</v>
       </c>
       <c r="J8">
-        <v>0.666584226522713</v>
+        <v>0.8542532849317694</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.518534666666667</v>
+        <v>0.24449</v>
       </c>
       <c r="N8">
-        <v>4.555604</v>
+        <v>0.73347</v>
       </c>
       <c r="O8">
-        <v>0.1025715407499064</v>
+        <v>0.009675524511058336</v>
       </c>
       <c r="P8">
-        <v>0.1025715407499064</v>
+        <v>0.009675524511058334</v>
       </c>
       <c r="Q8">
-        <v>74.81352189046756</v>
+        <v>33.45205436635666</v>
       </c>
       <c r="R8">
-        <v>673.3216970142081</v>
+        <v>301.06848929721</v>
       </c>
       <c r="S8">
-        <v>0.06837257115401928</v>
+        <v>0.008265348597009435</v>
       </c>
       <c r="T8">
-        <v>0.06837257115401928</v>
+        <v>0.008265348597009434</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>49.26691733333334</v>
+        <v>136.8238143333333</v>
       </c>
       <c r="H9">
-        <v>147.800752</v>
+        <v>410.471443</v>
       </c>
       <c r="I9">
-        <v>0.666584226522713</v>
+        <v>0.8542532849317694</v>
       </c>
       <c r="J9">
-        <v>0.666584226522713</v>
+        <v>0.8542532849317694</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>13.255676</v>
       </c>
       <c r="O9">
-        <v>0.2984577041818288</v>
+        <v>0.1748614367985708</v>
       </c>
       <c r="P9">
-        <v>0.2984577041818288</v>
+        <v>0.1748614367985708</v>
       </c>
       <c r="Q9">
-        <v>217.6887645631502</v>
+        <v>604.5640506289409</v>
       </c>
       <c r="R9">
-        <v>1959.198881068352</v>
+        <v>5441.076455660468</v>
       </c>
       <c r="S9">
-        <v>0.1989471978917891</v>
+        <v>0.1493759567930681</v>
       </c>
       <c r="T9">
-        <v>0.198947197891789</v>
+        <v>0.1493759567930681</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>49.26691733333334</v>
+        <v>136.8238143333333</v>
       </c>
       <c r="H10">
-        <v>147.800752</v>
+        <v>410.471443</v>
       </c>
       <c r="I10">
-        <v>0.666584226522713</v>
+        <v>0.8542532849317694</v>
       </c>
       <c r="J10">
-        <v>0.666584226522713</v>
+        <v>0.8542532849317694</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.867545999999999</v>
+        <v>20.60586566666667</v>
       </c>
       <c r="N10">
-        <v>26.602638</v>
+        <v>61.81759700000001</v>
       </c>
       <c r="O10">
-        <v>0.5989707550682648</v>
+        <v>0.815463038690371</v>
       </c>
       <c r="P10">
-        <v>0.5989707550682649</v>
+        <v>0.8154630386903708</v>
       </c>
       <c r="Q10">
-        <v>436.8766557315307</v>
+        <v>2819.373138153608</v>
       </c>
       <c r="R10">
-        <v>3931.889901583776</v>
+        <v>25374.35824338247</v>
       </c>
       <c r="S10">
-        <v>0.3992644574769046</v>
+        <v>0.696611979541692</v>
       </c>
       <c r="T10">
-        <v>0.3992644574769048</v>
+        <v>0.6966119795416919</v>
       </c>
     </row>
   </sheetData>
